--- a/aspnet-core/src/KiemKeDatDai.Web.Host/wwwroot/Templates/excels/Template_Bieu01TKKK.xlsx
+++ b/aspnet-core/src/KiemKeDatDai.Web.Host/wwwroot/Templates/excels/Template_Bieu01TKKK.xlsx
@@ -290,18 +290,6 @@
     </r>
   </si>
   <si>
-    <t>Xã: &amp;=Header.from_date</t>
-  </si>
-  <si>
-    <t>Huyện: &amp;=Header.from_date</t>
-  </si>
-  <si>
-    <t>Tỉnh: &amp;=Header.from_date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  (Đến ngày 31/12/&amp;=Header.from_date)</t>
-  </si>
-  <si>
     <t>&amp;=Data.TongDienTichDVHC</t>
   </si>
   <si>
@@ -366,6 +354,18 @@
   </si>
   <si>
     <t>&amp;=Data.CongDongDanCu_CDQ</t>
+  </si>
+  <si>
+    <t>&amp;=Header.tinh</t>
+  </si>
+  <si>
+    <t>&amp;=Header.huyen</t>
+  </si>
+  <si>
+    <t>&amp;=Header.xa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Header.year</t>
   </si>
 </sst>
 </file>
@@ -766,12 +766,90 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -785,84 +863,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BV19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2629,62 +2629,62 @@
   <sheetData>
     <row r="1" spans="1:74" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1"/>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-      <c r="O1" s="24"/>
-      <c r="P1" s="24"/>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="24"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
     </row>
     <row r="2" spans="1:74" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="52"/>
+      <c r="C2" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="28" t="s">
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
+      <c r="H2" s="53"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
+      <c r="O2" s="53"/>
+      <c r="P2" s="53"/>
+      <c r="Q2" s="53"/>
+      <c r="R2" s="53"/>
+      <c r="S2" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
+      <c r="T2" s="54"/>
+      <c r="U2" s="54"/>
+      <c r="V2" s="54"/>
     </row>
     <row r="3" spans="1:74" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
+      <c r="A3" s="49"/>
+      <c r="B3" s="49"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -2701,168 +2701,168 @@
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
-      <c r="S3" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
+      <c r="S3" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
     </row>
     <row r="4" spans="1:74" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
     </row>
     <row r="5" spans="1:74" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1"/>
-      <c r="C5" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="32"/>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="32"/>
-      <c r="S5" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
+      <c r="C5" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="44"/>
+      <c r="K5" s="44"/>
+      <c r="L5" s="44"/>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
+      <c r="V5" s="43"/>
     </row>
     <row r="6" spans="1:74" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C6" s="1"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="33" t="s">
+      <c r="S6" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
     </row>
     <row r="7" spans="1:74" s="5" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="41" t="s">
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="47"/>
+      <c r="O7" s="47"/>
+      <c r="P7" s="47"/>
+      <c r="Q7" s="47"/>
+      <c r="R7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="S7" s="41"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="41"/>
-      <c r="V7" s="41"/>
+      <c r="S7" s="32"/>
+      <c r="T7" s="32"/>
+      <c r="U7" s="32"/>
+      <c r="V7" s="32"/>
     </row>
     <row r="8" spans="1:74" s="5" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="42" t="s">
+      <c r="A8" s="31"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="46" t="s">
+      <c r="G8" s="36"/>
+      <c r="H8" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="42" t="s">
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="42" t="s">
+      <c r="N8" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="O8" s="42" t="s">
+      <c r="O8" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="P8" s="42" t="s">
+      <c r="P8" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="Q8" s="42" t="s">
+      <c r="Q8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="R8" s="29" t="s">
+      <c r="R8" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="S8" s="29" t="s">
+      <c r="S8" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="T8" s="29" t="s">
+      <c r="T8" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="U8" s="29" t="s">
+      <c r="U8" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="V8" s="29" t="s">
+      <c r="V8" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:74" s="5" customFormat="1" ht="77.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="40"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="40"/>
-      <c r="E9" s="43"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="34"/>
       <c r="F9" s="6" t="s">
         <v>25</v>
       </c>
@@ -2884,16 +2884,16 @@
       <c r="L9" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="43"/>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="30"/>
-      <c r="V9" s="30"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="48"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
     </row>
     <row r="10" spans="1:74" s="13" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
@@ -3017,142 +3017,142 @@
     </row>
     <row r="11" spans="1:74" s="12" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="G11" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="H11" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="14" t="s">
+      <c r="I11" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="J11" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="K11" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="L11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="M11" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="N11" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="O11" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="P11" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="Q11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="R11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="O11" s="14" t="s">
+      <c r="S11" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="14" t="s">
+      <c r="T11" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="Q11" s="14" t="s">
+      <c r="U11" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="R11" s="14" t="s">
+      <c r="V11" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="S11" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="T11" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="U11" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="V11" s="14" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:74" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="16"/>
-      <c r="I12" s="38" t="s">
+      <c r="I12" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="29"/>
       <c r="N12" s="17"/>
       <c r="O12" s="17"/>
       <c r="P12" s="16"/>
-      <c r="Q12" s="38" t="s">
+      <c r="Q12" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="R12" s="38"/>
-      <c r="S12" s="38"/>
-      <c r="T12" s="38"/>
-      <c r="U12" s="38"/>
+      <c r="R12" s="29"/>
+      <c r="S12" s="29"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="29"/>
       <c r="V12" s="16"/>
     </row>
     <row r="13" spans="1:74" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="I13" s="51" t="s">
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="I13" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="Q13" s="52" t="s">
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="Q13" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="R13" s="52"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
+      <c r="R13" s="25"/>
+      <c r="S13" s="25"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="25"/>
     </row>
     <row r="14" spans="1:74" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="I14" s="53" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="I14" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="Q14" s="54" t="s">
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="Q14" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="R14" s="54"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="54"/>
-      <c r="U14" s="54"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
     </row>
     <row r="15" spans="1:74" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="1"/>
@@ -3197,10 +3197,10 @@
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:22" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="49"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
@@ -3223,50 +3223,50 @@
     </row>
     <row r="18" spans="1:22" s="20" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18"/>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="50"/>
-      <c r="M18" s="50"/>
-      <c r="N18" s="50"/>
-      <c r="O18" s="50"/>
-      <c r="P18" s="50"/>
-      <c r="Q18" s="50"/>
-      <c r="R18" s="50"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="23"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
       <c r="V18" s="19"/>
     </row>
     <row r="19" spans="1:22" s="20" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="21"/>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="50"/>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
-      <c r="K19" s="50"/>
-      <c r="L19" s="50"/>
-      <c r="M19" s="50"/>
-      <c r="N19" s="50"/>
-      <c r="O19" s="50"/>
-      <c r="P19" s="50"/>
-      <c r="Q19" s="50"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="23"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23"/>
       <c r="R19" s="19"/>
       <c r="S19" s="19"/>
       <c r="T19" s="19"/>
@@ -3275,15 +3275,24 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="B18:U18"/>
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="I13:M13"/>
-    <mergeCell ref="Q13:U13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="I14:M14"/>
-    <mergeCell ref="Q14:U14"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="C1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:R2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="V8:V9"/>
+    <mergeCell ref="C4:R4"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="C5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="E7:Q7"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:T9"/>
+    <mergeCell ref="U8:U9"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="I12:M12"/>
     <mergeCell ref="Q12:U12"/>
@@ -3300,24 +3309,15 @@
     <mergeCell ref="O8:O9"/>
     <mergeCell ref="P8:P9"/>
     <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="V8:V9"/>
-    <mergeCell ref="C4:R4"/>
-    <mergeCell ref="S4:V4"/>
-    <mergeCell ref="C5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="S6:V6"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="E7:Q7"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:T9"/>
-    <mergeCell ref="U8:U9"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="S3:V3"/>
-    <mergeCell ref="C1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:R2"/>
-    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="B18:U18"/>
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="Q13:U13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="I14:M14"/>
+    <mergeCell ref="Q14:U14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
